--- a/config/Format_Marine_Biotoxin_live_bivalve_molluscs_v2.xlsx
+++ b/config/Format_Marine_Biotoxin_live_bivalve_molluscs_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95948274-BD72-4326-9A9F-92A98A8A10A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62CB27-7C4A-461A-981E-F4FF5616C71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolumner" sheetId="1" r:id="rId1"/>
@@ -808,9 +808,6 @@
     <t>Q-flag STX_C1_C2</t>
   </si>
   <si>
-    <t>C3_4 (Unit)</t>
-  </si>
-  <si>
     <t>Q-flag C3_4</t>
   </si>
   <si>
@@ -862,12 +859,6 @@
     <t>Q-flag dcSTX</t>
   </si>
   <si>
-    <t>DA_LP205 (Unit)</t>
-  </si>
-  <si>
-    <t>Q-flag DA_LP205</t>
-  </si>
-  <si>
     <t>DA_screen_pos (true or false)</t>
   </si>
   <si>
@@ -964,12 +955,6 @@
     <t>Q-flag HomoYTX</t>
   </si>
   <si>
-    <t>Shortname (Unit)</t>
-  </si>
-  <si>
-    <t>Q-flag Shortname</t>
-  </si>
-  <si>
     <t>NeoSTX (ug STXdiHCL eq/kg)</t>
   </si>
   <si>
@@ -988,12 +973,6 @@
     <t>Q-flag Okadaic</t>
   </si>
   <si>
-    <t>PSP_tot (Unit)</t>
-  </si>
-  <si>
-    <t>Q-flag PSP_tot</t>
-  </si>
-  <si>
     <t>PST_tot (ug STXdiHCL eq/kg)</t>
   </si>
   <si>
@@ -1288,12 +1267,6 @@
     <t>Q_dcSTX</t>
   </si>
   <si>
-    <t>DA_LP205</t>
-  </si>
-  <si>
-    <t>Q_DA_LP205</t>
-  </si>
-  <si>
     <t>DA_screen_pos</t>
   </si>
   <si>
@@ -1372,12 +1345,6 @@
     <t>Q_HomoYTX</t>
   </si>
   <si>
-    <t>Shortname</t>
-  </si>
-  <si>
-    <t>Q_Shortname</t>
-  </si>
-  <si>
     <t>NeoSTX</t>
   </si>
   <si>
@@ -1396,12 +1363,6 @@
     <t>Q_Okadaic acid</t>
   </si>
   <si>
-    <t>PSP_tot</t>
-  </si>
-  <si>
-    <t>Q_PSP_tot</t>
-  </si>
-  <si>
     <t>PST_tot</t>
   </si>
   <si>
@@ -1769,6 +1730,45 @@
   </si>
   <si>
     <t>Mytilus</t>
+  </si>
+  <si>
+    <t>NEO_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_NEO_screen_pos</t>
+  </si>
+  <si>
+    <t>NEO_screen_pos (true or false)</t>
+  </si>
+  <si>
+    <t>Q-flag NEO_screen_pos</t>
+  </si>
+  <si>
+    <t>C3_4 (true or false)</t>
+  </si>
+  <si>
+    <t>DA_screening</t>
+  </si>
+  <si>
+    <t>DA_screening (mg/kg)</t>
+  </si>
+  <si>
+    <t>Q_DA_screening</t>
+  </si>
+  <si>
+    <t>Q-flag DA_screening</t>
+  </si>
+  <si>
+    <t>PST_tot_screen_pos</t>
+  </si>
+  <si>
+    <t>Q_PST_tot_screen_pos</t>
+  </si>
+  <si>
+    <t>Q-flag PST_tot_screen_pos</t>
+  </si>
+  <si>
+    <t>PST_tot_screen_pos (true or false)</t>
   </si>
 </sst>
 </file>
@@ -2455,184 +2455,183 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:FQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="CY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DF2" sqref="DF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.08984375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="24.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.7265625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="25.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18.81640625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="9.90625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="7.453125" style="14" customWidth="1"/>
-    <col min="25" max="25" width="14.08984375" style="14" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" style="14" customWidth="1"/>
-    <col min="27" max="27" width="23.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.85546875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="14" customWidth="1"/>
+    <col min="22" max="23" width="9.85546875" style="14" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="14" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="14" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.7265625" style="14" customWidth="1"/>
-    <col min="31" max="31" width="24.26953125" style="14" customWidth="1"/>
-    <col min="32" max="32" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.7109375" style="14" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" style="14" customWidth="1"/>
+    <col min="32" max="32" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="29.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="28.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="21.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="23.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="22.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="15.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="24.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="23.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="28.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="24.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="20.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="9.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="9.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="19.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="13.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="13.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="13.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="27.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="19.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="17.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="30.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="30.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="29.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="172" max="16384" width="12.81640625" style="14"/>
+    <col min="163" max="163" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="16384" width="12.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>28</v>
@@ -2689,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="W1" s="32" t="s">
         <v>28</v>
@@ -2859,7 +2858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:173" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:173" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -2885,13 +2884,13 @@
         <v>58</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>93</v>
@@ -2903,7 +2902,7 @@
         <v>52</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>30</v>
@@ -2927,25 +2926,25 @@
         <v>51</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="AC2" s="35" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="AD2" s="31" t="s">
         <v>112</v>
@@ -3008,370 +3007,370 @@
         <v>131</v>
       </c>
       <c r="AX2" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="AY2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AY2" s="31" t="s">
+      <c r="AZ2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="AZ2" s="31" t="s">
+      <c r="BA2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BA2" s="31" t="s">
+      <c r="BB2" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BC2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="BC2" s="31" t="s">
+      <c r="BD2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BE2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BE2" s="31" t="s">
+      <c r="BF2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="31" t="s">
+      <c r="BG2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BG2" s="31" t="s">
+      <c r="BH2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BH2" s="31" t="s">
+      <c r="BI2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BI2" s="31" t="s">
+      <c r="BJ2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="BJ2" s="31" t="s">
+      <c r="BK2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BL2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BM2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="BM2" s="31" t="s">
+      <c r="BN2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="BO2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="BP2" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="BQ2" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="BR2" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="BP2" s="31" t="s">
+      <c r="BS2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BQ2" s="31" t="s">
+      <c r="BT2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="BR2" s="31" t="s">
+      <c r="BU2" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="BS2" s="31" t="s">
+      <c r="BV2" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="BT2" s="31" t="s">
+      <c r="BW2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="BU2" s="31" t="s">
+      <c r="BX2" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BV2" s="31" t="s">
+      <c r="BY2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="BW2" s="31" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="BX2" s="31" t="s">
+      <c r="CA2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="31" t="s">
+      <c r="CB2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="BZ2" s="31" t="s">
+      <c r="CC2" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="CA2" s="31" t="s">
+      <c r="CD2" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="CB2" s="31" t="s">
+      <c r="CE2" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CC2" s="31" t="s">
+      <c r="CF2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="CD2" s="31" t="s">
+      <c r="CG2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="CE2" s="31" t="s">
+      <c r="CH2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="CF2" s="31" t="s">
+      <c r="CI2" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="CG2" s="31" t="s">
+      <c r="CJ2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="CH2" s="31" t="s">
+      <c r="CK2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="CI2" s="31" t="s">
+      <c r="CL2" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="CJ2" s="31" t="s">
+      <c r="CM2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="CK2" s="31" t="s">
+      <c r="CN2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="CL2" s="31" t="s">
+      <c r="CO2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="CM2" s="31" t="s">
+      <c r="CP2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="CN2" s="31" t="s">
+      <c r="CQ2" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="CO2" s="31" t="s">
+      <c r="CR2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="CP2" s="31" t="s">
+      <c r="CS2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="CQ2" s="31" t="s">
+      <c r="CT2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="CR2" s="31" t="s">
+      <c r="CU2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="CS2" s="31" t="s">
+      <c r="CV2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="CT2" s="31" t="s">
+      <c r="CW2" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="CU2" s="31" t="s">
+      <c r="CX2" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="CY2" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="CZ2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="CV2" s="31" t="s">
+      <c r="DA2" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="CW2" s="31" t="s">
+      <c r="DB2" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="CX2" s="31" t="s">
+      <c r="DC2" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="CY2" s="31" t="s">
+      <c r="DD2" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="CZ2" s="31" t="s">
+      <c r="DE2" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="DA2" s="31" t="s">
+      <c r="DF2" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="DG2" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="DH2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="DB2" s="31" t="s">
+      <c r="DI2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="DC2" s="31" t="s">
+      <c r="DJ2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="DD2" s="31" t="s">
+      <c r="DK2" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="DE2" s="31" t="s">
+      <c r="DL2" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="DF2" s="31" t="s">
+      <c r="DM2" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="DG2" s="31" t="s">
+      <c r="DN2" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="DH2" s="31" t="s">
+      <c r="DO2" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="DI2" s="31" t="s">
+      <c r="DP2" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="DJ2" s="31" t="s">
+      <c r="DQ2" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="DK2" s="31" t="s">
+      <c r="DR2" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="DL2" s="31" t="s">
+      <c r="DS2" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="DM2" s="31" t="s">
+      <c r="DT2" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="DN2" s="31" t="s">
+      <c r="DU2" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="DO2" s="31" t="s">
+      <c r="DV2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="DP2" s="31" t="s">
+      <c r="DW2" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="DQ2" s="31" t="s">
+      <c r="DX2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="DR2" s="31" t="s">
+      <c r="DY2" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="DS2" s="31" t="s">
+      <c r="DZ2" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="DT2" s="31" t="s">
+      <c r="EA2" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="DU2" s="31" t="s">
+      <c r="EB2" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="DV2" s="31" t="s">
+      <c r="EC2" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="DW2" s="31" t="s">
+      <c r="ED2" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="DX2" s="31" t="s">
+      <c r="EE2" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="DY2" s="31" t="s">
+      <c r="EF2" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="DZ2" s="31" t="s">
+      <c r="EG2" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="EA2" s="31" t="s">
+      <c r="EH2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="EB2" s="31" t="s">
+      <c r="EI2" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="EC2" s="31" t="s">
+      <c r="EJ2" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="ED2" s="31" t="s">
+      <c r="EK2" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="EE2" s="31" t="s">
+      <c r="EL2" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="EF2" s="31" t="s">
+      <c r="EM2" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="EG2" s="31" t="s">
+      <c r="EN2" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="EH2" s="31" t="s">
+      <c r="EO2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="EI2" s="31" t="s">
+      <c r="EP2" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="EJ2" s="31" t="s">
+      <c r="EQ2" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="EK2" s="31" t="s">
+      <c r="ER2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="EL2" s="31" t="s">
+      <c r="ES2" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="EM2" s="31" t="s">
+      <c r="ET2" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="EN2" s="31" t="s">
+      <c r="EU2" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="EO2" s="31" t="s">
+      <c r="EV2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="EP2" s="31" t="s">
+      <c r="EW2" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="EQ2" s="31" t="s">
+      <c r="EX2" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="ER2" s="31" t="s">
+      <c r="EY2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="ES2" s="31" t="s">
+      <c r="EZ2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="ET2" s="31" t="s">
+      <c r="FA2" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="EU2" s="31" t="s">
+      <c r="FB2" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="EV2" s="31" t="s">
+      <c r="FC2" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="EW2" s="31" t="s">
+      <c r="FD2" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="EX2" s="31" t="s">
+      <c r="FE2" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="EY2" s="31" t="s">
+      <c r="FF2" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="EZ2" s="31" t="s">
+      <c r="FG2" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="FA2" s="31" t="s">
+      <c r="FH2" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="FB2" s="31" t="s">
+      <c r="FI2" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="FC2" s="31" t="s">
+      <c r="FJ2" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="FD2" s="31" t="s">
+      <c r="FK2" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="FE2" s="31" t="s">
+      <c r="FL2" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="FF2" s="31" t="s">
+      <c r="FM2" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="FG2" s="31" t="s">
+      <c r="FN2" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="FH2" s="31" t="s">
+      <c r="FO2" s="31" t="s">
         <v>246</v>
-      </c>
-      <c r="FI2" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="FJ2" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="FK2" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="FL2" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="FM2" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="FN2" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="FO2" s="31" t="s">
-        <v>253</v>
       </c>
       <c r="FP2" s="20" t="s">
         <v>46</v>
@@ -3380,7 +3379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
@@ -3406,13 +3405,13 @@
         <v>60</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>18</v>
@@ -3424,7 +3423,7 @@
         <v>20</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>2</v>
@@ -3454,10 +3453,10 @@
         <v>22</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="Z3" s="47" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>85</v>
@@ -3466,145 +3465,145 @@
         <v>86</v>
       </c>
       <c r="AC3" s="28" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="AD3" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AN3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AS3" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AT3" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AU3" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AV3" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AW3" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AX3" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AY3" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="BA3" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="BB3" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="BC3" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="BD3" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="BF3" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="BG3" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BH3" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BI3" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BJ3" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BK3" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BL3" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BN3" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BO3" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BP3" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="BR3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="BS3" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BT3" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BU3" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BV3" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="BN3" s="9" t="s">
+      <c r="BW3" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP3" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT3" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="BV3" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="BW3" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="BX3" s="9" t="s">
         <v>67</v>
@@ -3619,10 +3618,10 @@
         <v>95</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="CC3" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="CD3" s="9" t="s">
         <v>108</v>
@@ -3631,130 +3630,130 @@
         <v>107</v>
       </c>
       <c r="CF3" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM3" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN3" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO3" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CP3" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CQ3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="CI3" s="9" t="s">
+      <c r="CR3" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CS3" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CT3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="CU3" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="CV3" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CW3" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CX3" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="CZ3" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="DA3" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="DB3" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="DC3" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="CS3" s="9" t="s">
+      <c r="DD3" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="DE3" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="DF3" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="DH3" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="CV3" s="9" t="s">
+      <c r="DI3" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="CW3" s="9" t="s">
+      <c r="DJ3" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="CX3" s="9" t="s">
+      <c r="DK3" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="CY3" s="9" t="s">
+      <c r="DL3" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="CZ3" s="9" t="s">
+      <c r="DM3" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="DA3" s="9" t="s">
+      <c r="DN3" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="DB3" s="9" t="s">
+      <c r="DO3" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="DC3" s="9" t="s">
+      <c r="DP3" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="DD3" s="9" t="s">
+      <c r="DQ3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="DE3" s="9" t="s">
+      <c r="DR3" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="DF3" s="9" t="s">
+      <c r="DS3" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="DG3" s="9" t="s">
+      <c r="DT3" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="DH3" s="9" t="s">
+      <c r="DU3" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="DI3" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="DJ3" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="DK3" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="DL3" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="DM3" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="DN3" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="DO3" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="DP3" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="DQ3" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="DR3" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="DS3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="DT3" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="DU3" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="DV3" s="9" t="s">
         <v>68</v>
@@ -3763,141 +3762,141 @@
         <v>97</v>
       </c>
       <c r="DX3" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="DY3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="DZ3" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="EA3" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="EB3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="EC3" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="ED3" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="EE3" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="EF3" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="EG3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="EH3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="EI3" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="EJ3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="EK3" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="DY3" s="9" t="s">
+      <c r="EL3" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="DZ3" s="9" t="s">
+      <c r="EM3" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="EA3" s="9" t="s">
+      <c r="EN3" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="EB3" s="9" t="s">
+      <c r="EO3" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="EC3" s="9" t="s">
+      <c r="EP3" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="ED3" s="9" t="s">
+      <c r="EQ3" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="EE3" s="9" t="s">
+      <c r="ER3" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="EF3" s="9" t="s">
+      <c r="ES3" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="EG3" s="9" t="s">
+      <c r="ET3" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="EH3" s="9" t="s">
+      <c r="EU3" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="EI3" s="9" t="s">
+      <c r="EV3" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="EJ3" s="9" t="s">
+      <c r="EW3" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="EK3" s="9" t="s">
+      <c r="EX3" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="EL3" s="9" t="s">
+      <c r="EY3" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="EM3" s="9" t="s">
+      <c r="EZ3" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="EN3" s="9" t="s">
+      <c r="FA3" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="EO3" s="9" t="s">
+      <c r="FB3" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="EP3" s="9" t="s">
+      <c r="FC3" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="EQ3" s="9" t="s">
+      <c r="FD3" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="ER3" s="9" t="s">
+      <c r="FE3" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="ES3" s="9" t="s">
+      <c r="FF3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="ET3" s="9" t="s">
+      <c r="FG3" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="EU3" s="9" t="s">
+      <c r="FH3" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="EV3" s="9" t="s">
+      <c r="FI3" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="EW3" s="9" t="s">
+      <c r="FJ3" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="EX3" s="9" t="s">
+      <c r="FK3" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="EY3" s="9" t="s">
+      <c r="FL3" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="EZ3" s="9" t="s">
+      <c r="FM3" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="FA3" s="9" t="s">
+      <c r="FN3" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="FB3" s="9" t="s">
+      <c r="FO3" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="FC3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="FD3" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="FE3" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="FF3" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="FG3" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FH3" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FI3" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FJ3" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="FK3" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="FL3" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="FM3" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN3" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FO3" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="FP3" s="22"/>
       <c r="FQ3" s="22"/>
     </row>
-    <row r="4" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -3925,20 +3924,20 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M4" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O4">
         <v>10000</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R4" t="s">
         <v>91</v>
@@ -3956,22 +3955,22 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA4" t="s">
         <v>84</v>
       </c>
       <c r="AB4"/>
       <c r="AC4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD4" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="AE4"/>
       <c r="AF4"/>
@@ -4115,7 +4114,7 @@
       <c r="FN4"/>
       <c r="FO4"/>
     </row>
-    <row r="5" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -4143,20 +4142,20 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O5">
         <v>10000</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R5" t="s">
         <v>91</v>
@@ -4174,22 +4173,22 @@
         <v>98</v>
       </c>
       <c r="W5" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA5" t="s">
         <v>84</v>
       </c>
       <c r="AB5"/>
       <c r="AC5" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD5" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="AE5"/>
       <c r="AF5"/>
@@ -4333,7 +4332,7 @@
       <c r="FN5"/>
       <c r="FO5"/>
     </row>
-    <row r="6" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -4361,20 +4360,20 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O6">
         <v>10000</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R6" t="s">
         <v>91</v>
@@ -4392,24 +4391,24 @@
         <v>98</v>
       </c>
       <c r="W6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA6" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AB6" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AC6" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD6" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="AE6"/>
       <c r="AF6"/>
@@ -4553,7 +4552,7 @@
       <c r="FN6"/>
       <c r="FO6"/>
     </row>
-    <row r="7" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>69</v>
       </c>
@@ -4581,20 +4580,20 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O7">
         <v>10000</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R7" t="s">
         <v>91</v>
@@ -4612,19 +4611,19 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA7" t="s">
         <v>81</v>
       </c>
       <c r="AB7"/>
       <c r="AC7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD7" t="s">
         <v>64</v>
@@ -4771,7 +4770,7 @@
       <c r="FN7"/>
       <c r="FO7"/>
     </row>
-    <row r="8" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -4799,20 +4798,20 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M8" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O8">
         <v>10000</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R8" t="s">
         <v>91</v>
@@ -4830,19 +4829,19 @@
         <v>98</v>
       </c>
       <c r="W8" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA8" t="s">
         <v>81</v>
       </c>
       <c r="AB8"/>
       <c r="AC8" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD8" t="s">
         <v>78</v>
@@ -4989,7 +4988,7 @@
       <c r="FN8"/>
       <c r="FO8"/>
     </row>
-    <row r="9" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -5017,20 +5016,20 @@
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M9" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O9">
         <v>10000</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R9" t="s">
         <v>91</v>
@@ -5048,19 +5047,19 @@
         <v>98</v>
       </c>
       <c r="W9" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AA9" t="s">
         <v>81</v>
       </c>
       <c r="AB9"/>
       <c r="AC9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD9" t="s">
         <v>64</v>
@@ -5207,7 +5206,7 @@
       <c r="FN9"/>
       <c r="FO9"/>
     </row>
-    <row r="10" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -5235,20 +5234,20 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M10" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O10">
         <v>10000</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R10" t="s">
         <v>91</v>
@@ -5266,27 +5265,27 @@
         <v>98</v>
       </c>
       <c r="W10" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AA10" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AB10" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AC10" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD10" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AE10" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AF10"/>
       <c r="AG10"/>
@@ -5429,7 +5428,7 @@
       <c r="FN10"/>
       <c r="FO10"/>
     </row>
-    <row r="11" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -5457,20 +5456,20 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M11" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O11">
         <v>10000</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R11" t="s">
         <v>91</v>
@@ -5488,25 +5487,25 @@
         <v>98</v>
       </c>
       <c r="W11" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AA11" t="s">
         <v>83</v>
       </c>
       <c r="AB11"/>
       <c r="AC11" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AE11" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AF11"/>
       <c r="AG11"/>
@@ -5649,7 +5648,7 @@
       <c r="FN11"/>
       <c r="FO11"/>
     </row>
-    <row r="12" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -5677,20 +5676,20 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M12" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O12">
         <v>8000</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R12" t="s">
         <v>91</v>
@@ -5708,19 +5707,19 @@
         <v>98</v>
       </c>
       <c r="W12" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA12" t="s">
         <v>82</v>
       </c>
       <c r="AB12"/>
       <c r="AC12" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -5865,7 +5864,7 @@
       <c r="FN12"/>
       <c r="FO12"/>
     </row>
-    <row r="13" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -5893,20 +5892,20 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M13" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O13">
         <v>8000</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R13" t="s">
         <v>91</v>
@@ -5924,19 +5923,19 @@
         <v>98</v>
       </c>
       <c r="W13" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA13" t="s">
         <v>81</v>
       </c>
       <c r="AB13"/>
       <c r="AC13" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -6081,7 +6080,7 @@
       <c r="FN13"/>
       <c r="FO13"/>
     </row>
-    <row r="14" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>69</v>
       </c>
@@ -6109,20 +6108,20 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M14" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O14">
         <v>8000</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R14" t="s">
         <v>91</v>
@@ -6140,19 +6139,19 @@
         <v>98</v>
       </c>
       <c r="W14" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA14" t="s">
         <v>81</v>
       </c>
       <c r="AB14"/>
       <c r="AC14" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -6297,7 +6296,7 @@
       <c r="FN14"/>
       <c r="FO14"/>
     </row>
-    <row r="15" spans="1:173" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:173" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -6325,20 +6324,20 @@
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M15" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O15">
         <v>8000</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="R15" t="s">
         <v>91</v>
@@ -6356,19 +6355,19 @@
         <v>98</v>
       </c>
       <c r="W15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AA15" t="s">
         <v>83</v>
       </c>
       <c r="AB15"/>
       <c r="AC15" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -6513,7 +6512,7 @@
       <c r="FN15"/>
       <c r="FO15"/>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U18" s="41"/>
     </row>
   </sheetData>
@@ -6529,30 +6528,30 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.54296875" style="1" customWidth="1"/>
-    <col min="9" max="15" width="20.81640625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.453125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="20.85546875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.42578125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6577,7 +6576,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -6585,10 +6584,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>44</v>
@@ -6609,13 +6608,13 @@
         <v>106</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>109</v>
@@ -6642,7 +6641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
@@ -6650,10 +6649,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -6665,25 +6664,25 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>13</v>
@@ -6692,7 +6691,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>31</v>
@@ -6707,9 +6706,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C4">
         <v>41456</v>
@@ -6721,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -6747,9 +6746,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C5">
         <v>41456</v>
@@ -6761,7 +6760,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -6787,9 +6786,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>41456</v>
@@ -6801,7 +6800,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -6825,9 +6824,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C7">
         <v>41456</v>
@@ -6839,7 +6838,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -6863,9 +6862,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>41456</v>
@@ -6877,7 +6876,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -6899,9 +6898,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C9">
         <v>41456</v>
@@ -6913,7 +6912,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -6937,9 +6936,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C10">
         <v>41456</v>
@@ -6951,7 +6950,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -6973,9 +6972,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C11">
         <v>41456</v>
@@ -6987,7 +6986,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -7009,9 +7008,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C12">
         <v>41456</v>
@@ -7023,7 +7022,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -7041,9 +7040,9 @@
       <c r="T12" s="44"/>
       <c r="U12" s="44"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C13">
         <v>41456</v>
@@ -7055,7 +7054,7 @@
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -7073,9 +7072,9 @@
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C14">
         <v>41456</v>
@@ -7087,7 +7086,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -7098,24 +7097,24 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" s="43" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="P14" s="44" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="T14" s="44"/>
       <c r="U14" s="44"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C15">
         <v>41456</v>
@@ -7127,7 +7126,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7138,24 +7137,24 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" s="43" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="P15" s="44" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="R15" s="44"/>
       <c r="S15" s="44" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C16">
         <v>41456</v>
@@ -7167,7 +7166,7 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7178,24 +7177,24 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" s="43" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="P16" s="44" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C17">
         <v>41456</v>
@@ -7207,7 +7206,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -7225,9 +7224,9 @@
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C18">
         <v>41456</v>
@@ -7239,7 +7238,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -7257,9 +7256,9 @@
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C19">
         <v>41456</v>
@@ -7271,7 +7270,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -7289,9 +7288,9 @@
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C20">
         <v>41456</v>
@@ -7303,7 +7302,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -7321,9 +7320,9 @@
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C21">
         <v>41456</v>
@@ -7335,7 +7334,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7353,9 +7352,9 @@
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C22">
         <v>41456</v>
@@ -7367,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -7385,9 +7384,9 @@
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="C23">
         <v>41456</v>
@@ -7399,7 +7398,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -7417,9 +7416,9 @@
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C24">
         <v>41456</v>
@@ -7431,7 +7430,7 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -7449,9 +7448,9 @@
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C25">
         <v>41456</v>
@@ -7463,7 +7462,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -7481,9 +7480,9 @@
       <c r="T25" s="44"/>
       <c r="U25" s="44"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C26">
         <v>41456</v>
@@ -7495,7 +7494,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -7513,7 +7512,7 @@
       <c r="T26" s="44"/>
       <c r="U26" s="44"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -7545,7 +7544,7 @@
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -7577,9 +7576,9 @@
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C29">
         <v>41456</v>
@@ -7591,7 +7590,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -7609,7 +7608,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -7641,9 +7640,9 @@
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C31">
         <v>41456</v>
@@ -7655,7 +7654,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -7673,9 +7672,9 @@
       <c r="T31" s="44"/>
       <c r="U31" s="44"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C32">
         <v>41456</v>
@@ -7687,7 +7686,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -7705,9 +7704,9 @@
       <c r="T32" s="44"/>
       <c r="U32" s="44"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C33">
         <v>41456</v>
@@ -7719,7 +7718,7 @@
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -7737,9 +7736,9 @@
       <c r="T33" s="44"/>
       <c r="U33" s="44"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C34">
         <v>41456</v>
@@ -7751,7 +7750,7 @@
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -7769,9 +7768,9 @@
       <c r="T34" s="44"/>
       <c r="U34" s="44"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C35">
         <v>41456</v>
@@ -7783,7 +7782,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -7801,9 +7800,9 @@
       <c r="T35" s="44"/>
       <c r="U35" s="44"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C36">
         <v>41456</v>
@@ -7815,7 +7814,7 @@
         <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -7833,9 +7832,9 @@
       <c r="T36" s="44"/>
       <c r="U36" s="44"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C37">
         <v>41456</v>
@@ -7847,7 +7846,7 @@
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -7865,9 +7864,9 @@
       <c r="T37" s="44"/>
       <c r="U37" s="44"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C38">
         <v>41456</v>
@@ -7879,7 +7878,7 @@
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -7897,9 +7896,9 @@
       <c r="T38" s="44"/>
       <c r="U38" s="44"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C39">
         <v>41456</v>
@@ -7911,7 +7910,7 @@
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -7929,9 +7928,9 @@
       <c r="T39" s="44"/>
       <c r="U39" s="44"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="C40">
         <v>41456</v>
@@ -7943,7 +7942,7 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -7961,9 +7960,9 @@
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C41">
         <v>41456</v>
@@ -7975,7 +7974,7 @@
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -7993,9 +7992,9 @@
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C42">
         <v>41456</v>
@@ -8007,7 +8006,7 @@
         <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -8025,9 +8024,9 @@
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C43">
         <v>41456</v>
@@ -8039,7 +8038,7 @@
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -8057,9 +8056,9 @@
       <c r="T43" s="44"/>
       <c r="U43" s="44"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="C44">
         <v>41456</v>
@@ -8071,7 +8070,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -8089,9 +8088,9 @@
       <c r="T44" s="44"/>
       <c r="U44" s="44"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C45">
         <v>41456</v>
@@ -8103,7 +8102,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -8121,9 +8120,9 @@
       <c r="T45" s="44"/>
       <c r="U45" s="44"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C46">
         <v>41456</v>
@@ -8135,7 +8134,7 @@
         <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -8153,9 +8152,9 @@
       <c r="T46" s="44"/>
       <c r="U46" s="44"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C47">
         <v>41456</v>
@@ -8167,7 +8166,7 @@
         <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -8185,9 +8184,9 @@
       <c r="T47" s="44"/>
       <c r="U47" s="44"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C48">
         <v>41456</v>
@@ -8199,7 +8198,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -8217,9 +8216,9 @@
       <c r="T48" s="44"/>
       <c r="U48" s="44"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C49">
         <v>41456</v>
@@ -8231,7 +8230,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -8249,9 +8248,9 @@
       <c r="T49" s="44"/>
       <c r="U49" s="44"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C50">
         <v>41456</v>
@@ -8263,7 +8262,7 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -8281,9 +8280,9 @@
       <c r="T50" s="44"/>
       <c r="U50" s="44"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C51">
         <v>41456</v>
@@ -8295,7 +8294,7 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -8313,7 +8312,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="44"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>68</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -8345,9 +8344,9 @@
       <c r="T52" s="44"/>
       <c r="U52" s="44"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C53">
         <v>41456</v>
@@ -8359,7 +8358,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -8377,9 +8376,9 @@
       <c r="T53" s="44"/>
       <c r="U53" s="44"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C54">
         <v>41456</v>
@@ -8391,7 +8390,7 @@
         <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -8409,9 +8408,9 @@
       <c r="T54" s="44"/>
       <c r="U54" s="44"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C55">
         <v>41456</v>
@@ -8423,7 +8422,7 @@
         <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -8441,9 +8440,9 @@
       <c r="T55" s="44"/>
       <c r="U55" s="44"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C56">
         <v>41456</v>
@@ -8455,7 +8454,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -8473,9 +8472,9 @@
       <c r="T56" s="44"/>
       <c r="U56" s="44"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C57">
         <v>41456</v>
@@ -8487,7 +8486,7 @@
         <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -8505,9 +8504,9 @@
       <c r="T57" s="44"/>
       <c r="U57" s="44"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C58">
         <v>41456</v>
@@ -8519,7 +8518,7 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -8537,9 +8536,9 @@
       <c r="T58" s="44"/>
       <c r="U58" s="44"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C59">
         <v>41456</v>
@@ -8551,7 +8550,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -8569,9 +8568,9 @@
       <c r="T59" s="44"/>
       <c r="U59" s="44"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C60">
         <v>41456</v>
@@ -8583,7 +8582,7 @@
         <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -8601,9 +8600,9 @@
       <c r="T60" s="44"/>
       <c r="U60" s="44"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C61">
         <v>41456</v>
@@ -8615,7 +8614,7 @@
         <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -8633,9 +8632,9 @@
       <c r="T61" s="44"/>
       <c r="U61" s="44"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C62">
         <v>41456</v>
@@ -8647,7 +8646,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -8665,9 +8664,9 @@
       <c r="T62" s="44"/>
       <c r="U62" s="44"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C63">
         <v>41456</v>
@@ -8679,7 +8678,7 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -8697,9 +8696,9 @@
       <c r="T63" s="44"/>
       <c r="U63" s="44"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C64">
         <v>41456</v>
@@ -8711,7 +8710,7 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -8729,9 +8728,9 @@
       <c r="T64" s="44"/>
       <c r="U64" s="44"/>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C65">
         <v>41456</v>
@@ -8743,7 +8742,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -8761,9 +8760,9 @@
       <c r="T65" s="44"/>
       <c r="U65" s="44"/>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C66">
         <v>41456</v>
@@ -8775,7 +8774,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -8793,9 +8792,9 @@
       <c r="T66" s="44"/>
       <c r="U66" s="44"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C67">
         <v>41456</v>
@@ -8807,7 +8806,7 @@
         <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -8825,9 +8824,9 @@
       <c r="T67" s="44"/>
       <c r="U67" s="44"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C68">
         <v>41456</v>
@@ -8839,7 +8838,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -8857,9 +8856,9 @@
       <c r="T68" s="44"/>
       <c r="U68" s="44"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C69">
         <v>41456</v>
@@ -8871,7 +8870,7 @@
         <v>100</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -8889,9 +8888,9 @@
       <c r="T69" s="44"/>
       <c r="U69" s="44"/>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C70">
         <v>41456</v>
@@ -8903,7 +8902,7 @@
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -8921,9 +8920,9 @@
       <c r="T70" s="44"/>
       <c r="U70" s="44"/>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C71">
         <v>41456</v>
@@ -8935,7 +8934,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -8953,9 +8952,9 @@
       <c r="T71" s="44"/>
       <c r="U71" s="44"/>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C72">
         <v>41456</v>
@@ -8967,7 +8966,7 @@
         <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -8985,9 +8984,9 @@
       <c r="T72" s="44"/>
       <c r="U72" s="44"/>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C73">
         <v>41456</v>
@@ -8999,7 +8998,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -9017,9 +9016,9 @@
       <c r="T73" s="44"/>
       <c r="U73" s="44"/>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C74">
         <v>41456</v>
@@ -9031,7 +9030,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -9049,357 +9048,357 @@
       <c r="T74" s="44"/>
       <c r="U74" s="44"/>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
       <c r="D79" s="36"/>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
       <c r="D89" s="36"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="38"/>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="38"/>
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>

--- a/config/Format_Marine_Biotoxin_live_bivalve_molluscs_v2.xlsx
+++ b/config/Format_Marine_Biotoxin_live_bivalve_molluscs_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62CB27-7C4A-461A-981E-F4FF5616C71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3938E0B1-5C1A-4187-845E-EBE525285331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="451">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1544,12 +1544,6 @@
   </si>
   <si>
     <t>Prov</t>
-  </si>
-  <si>
-    <t>STX C1_C2</t>
-  </si>
-  <si>
-    <t>STX C3_C4</t>
   </si>
   <si>
     <t>3</t>
@@ -2004,7 +1998,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2084,9 +2078,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2453,10 +2444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:FQ18"/>
+  <dimension ref="A1:FQ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DF2" sqref="DF2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2672,7 @@
       <c r="S1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="41" t="s">
         <v>28</v>
       </c>
       <c r="U1" s="32" t="s">
@@ -2884,13 +2875,13 @@
         <v>58</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>93</v>
@@ -2902,7 +2893,7 @@
         <v>52</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>30</v>
@@ -2926,7 +2917,7 @@
         <v>51</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>21</v>
@@ -2935,238 +2926,238 @@
         <v>375</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC2" s="35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="AF2" s="31" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AJ2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="31" t="s">
+      <c r="AO2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AL2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="AP2" s="31" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="AQ2" s="31" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AR2" s="31" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
       <c r="AS2" s="31" t="s">
-        <v>127</v>
+        <v>446</v>
       </c>
       <c r="AT2" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW2" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC2" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE2" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF2" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH2" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI2" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK2" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL2" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="AU2" s="31" t="s">
+      <c r="BO2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AV2" s="31" t="s">
+      <c r="BP2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AW2" s="31" t="s">
+      <c r="BQ2" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AX2" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="AY2" s="31" t="s">
+      <c r="BR2" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="BS2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AZ2" s="31" t="s">
+      <c r="BT2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="BA2" s="31" t="s">
+      <c r="BU2" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BV2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BE2" s="31" t="s">
+      <c r="BW2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BF2" s="31" t="s">
+      <c r="BX2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BG2" s="31" t="s">
+      <c r="BY2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BH2" s="31" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="BI2" s="31" t="s">
+      <c r="CA2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="BJ2" s="31" t="s">
+      <c r="CB2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="CC2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="CD2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="BM2" s="31" t="s">
+      <c r="CE2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="CF2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="CG2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="BP2" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="BQ2" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="BR2" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS2" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT2" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="BU2" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="BV2" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="BW2" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="BX2" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY2" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="BZ2" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="CA2" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="CB2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC2" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="CD2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="CE2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="CF2" s="31" t="s">
+      <c r="CH2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="CG2" s="31" t="s">
+      <c r="CI2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="CH2" s="31" t="s">
+      <c r="CJ2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="CI2" s="31" t="s">
+      <c r="CK2" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="CJ2" s="31" t="s">
+      <c r="CL2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="CK2" s="31" t="s">
+      <c r="CM2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="CL2" s="31" t="s">
+      <c r="CN2" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="CM2" s="31" t="s">
+      <c r="CO2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="CN2" s="31" t="s">
+      <c r="CP2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="CO2" s="31" t="s">
+      <c r="CQ2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="CP2" s="31" t="s">
+      <c r="CR2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="CQ2" s="31" t="s">
+      <c r="CS2" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="CR2" s="31" t="s">
+      <c r="CT2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="CS2" s="31" t="s">
+      <c r="CU2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="CT2" s="31" t="s">
+      <c r="CV2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="CU2" s="31" t="s">
+      <c r="CW2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="CV2" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="CW2" s="31" t="s">
-        <v>180</v>
-      </c>
       <c r="CX2" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="CY2" s="31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="CZ2" s="31" t="s">
         <v>181</v>
@@ -3175,64 +3166,64 @@
         <v>182</v>
       </c>
       <c r="DB2" s="31" t="s">
-        <v>183</v>
+        <v>450</v>
       </c>
       <c r="DC2" s="31" t="s">
-        <v>184</v>
+        <v>449</v>
       </c>
       <c r="DD2" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="DE2" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DF2" s="31" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
       <c r="DG2" s="31" t="s">
-        <v>451</v>
+        <v>198</v>
       </c>
       <c r="DH2" s="31" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="DI2" s="31" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DJ2" s="31" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="DK2" s="31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="DL2" s="31" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="DM2" s="31" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="DN2" s="31" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="DO2" s="31" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="DP2" s="31" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="DQ2" s="31" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="DR2" s="31" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="DS2" s="31" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="DT2" s="31" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="DU2" s="31" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="DV2" s="31" t="s">
         <v>201</v>
@@ -3265,58 +3256,58 @@
         <v>210</v>
       </c>
       <c r="EF2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="EG2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="EH2" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="EI2" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="EJ2" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="EG2" s="31" t="s">
+      <c r="EK2" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="EH2" s="31" t="s">
+      <c r="EL2" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="EM2" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="EN2" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="EO2" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="EP2" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ2" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="ER2" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="ES2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="ET2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="EI2" s="31" t="s">
+      <c r="EU2" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="EJ2" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="EK2" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="EL2" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="EM2" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="EN2" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="EO2" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="EP2" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="EQ2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="ER2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="ES2" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="ET2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="EU2" s="31" t="s">
-        <v>226</v>
-      </c>
       <c r="EV2" s="31" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="EW2" s="31" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="EX2" s="31" t="s">
         <v>229</v>
@@ -3331,46 +3322,46 @@
         <v>232</v>
       </c>
       <c r="FB2" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="FC2" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="FD2" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="FE2" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="FF2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="FG2" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="FH2" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="FI2" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="FJ2" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="FC2" s="31" t="s">
+      <c r="FK2" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="FD2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="FE2" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="FF2" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="FG2" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="FH2" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="FI2" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="FJ2" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="FK2" s="31" t="s">
-        <v>242</v>
-      </c>
       <c r="FL2" s="31" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="FM2" s="31" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="FN2" s="31" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="FO2" s="31" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="FP2" s="20" t="s">
         <v>46</v>
@@ -3405,13 +3396,13 @@
         <v>60</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>18</v>
@@ -3422,8 +3413,8 @@
       <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="46" t="s">
-        <v>414</v>
+      <c r="O3" s="45" t="s">
+        <v>412</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>2</v>
@@ -3455,8 +3446,8 @@
       <c r="Y3" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="Z3" s="47" t="s">
-        <v>418</v>
+      <c r="Z3" s="46" t="s">
+        <v>416</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>85</v>
@@ -3465,229 +3456,229 @@
         <v>86</v>
       </c>
       <c r="AC3" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AJ3" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN3" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="AL3" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="AP3" s="9" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>262</v>
+        <v>445</v>
       </c>
       <c r="AT3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN3" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="BO3" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="BP3" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="BQ3" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="BR3" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="BS3" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="BT3" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BU3" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="BB3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BV3" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BW3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BX3" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BY3" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BZ3" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="CA3" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="CB3" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="CC3" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="CD3" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="CE3" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="BN3" s="9" t="s">
+      <c r="CF3" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="BO3" s="9" t="s">
+      <c r="CG3" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="BP3" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="BT3" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="BV3" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="BW3" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="BX3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="CC3" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="CD3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF3" s="9" t="s">
+      <c r="CH3" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CI3" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CJ3" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="CI3" s="9" t="s">
+      <c r="CK3" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CL3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CM3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="CN3" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="CO3" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CP3" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CQ3" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="CR3" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="CS3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="CT3" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="CS3" s="9" t="s">
+      <c r="CU3" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="CV3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="CW3" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="CV3" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="CW3" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="CX3" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="CY3" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="CZ3" s="9" t="s">
         <v>311</v>
@@ -3696,64 +3687,64 @@
         <v>312</v>
       </c>
       <c r="DB3" s="9" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="DC3" s="9" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="DD3" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="DE3" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="DF3" s="9" t="s">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="DG3" s="9" t="s">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="DH3" s="9" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="DI3" s="9" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="DJ3" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="DK3" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="DM3" s="9" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="DN3" s="9" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="DO3" s="9" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="DP3" s="9" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="DQ3" s="9" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="DR3" s="9" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="DS3" s="9" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="DT3" s="9" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="DU3" s="9" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="DV3" s="9" t="s">
         <v>68</v>
@@ -3786,58 +3777,58 @@
         <v>338</v>
       </c>
       <c r="EF3" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="EG3" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="EH3" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="EI3" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="EJ3" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="EG3" s="9" t="s">
+      <c r="EK3" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="EH3" s="9" t="s">
+      <c r="EL3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="EM3" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="EN3" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="EO3" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="EP3" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="EQ3" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="ER3" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="ES3" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="ET3" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="EI3" s="9" t="s">
+      <c r="EU3" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="EJ3" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="EK3" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="EL3" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="EM3" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="EN3" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="EO3" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="EP3" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="EQ3" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="ER3" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="ES3" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="ET3" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="EU3" s="9" t="s">
-        <v>354</v>
-      </c>
       <c r="EV3" s="9" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="EW3" s="9" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="EX3" s="9" t="s">
         <v>357</v>
@@ -3852,46 +3843,46 @@
         <v>360</v>
       </c>
       <c r="FB3" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="FC3" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="FD3" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="FE3" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="FF3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="FG3" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="FH3" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="FI3" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="FJ3" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="FC3" s="9" t="s">
+      <c r="FK3" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="FD3" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="FE3" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="FF3" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="FG3" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="FH3" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="FI3" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="FJ3" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="FK3" s="9" t="s">
-        <v>370</v>
-      </c>
       <c r="FL3" s="9" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="FM3" s="9" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="FN3" s="9" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="FO3" s="9" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="FP3" s="22"/>
       <c r="FQ3" s="22"/>
@@ -3917,35 +3908,35 @@
       <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>153</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M4" t="s">
-        <v>433</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O4">
         <v>10000</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R4" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="49" t="s">
         <v>65</v>
       </c>
       <c r="U4" t="s">
@@ -3955,25 +3946,23 @@
         <v>98</v>
       </c>
       <c r="W4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA4" t="s">
         <v>84</v>
       </c>
       <c r="AB4"/>
       <c r="AC4" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE4"/>
-      <c r="AF4"/>
+        <v>403</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>378</v>
+      </c>
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
@@ -4135,35 +4124,35 @@
       <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="47">
         <v>153</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M5" t="s">
-        <v>433</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O5">
         <v>10000</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R5" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="49" t="s">
         <v>65</v>
       </c>
       <c r="U5" t="s">
@@ -4173,25 +4162,23 @@
         <v>98</v>
       </c>
       <c r="W5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA5" t="s">
         <v>84</v>
       </c>
       <c r="AB5"/>
       <c r="AC5" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE5"/>
-      <c r="AF5"/>
+        <v>403</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>378</v>
+      </c>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
@@ -4353,35 +4340,35 @@
       <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="47">
         <v>153</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M6" t="s">
-        <v>433</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O6">
         <v>10000</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R6" t="s">
         <v>91</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="49" t="s">
         <v>65</v>
       </c>
       <c r="U6" t="s">
@@ -4391,27 +4378,25 @@
         <v>98</v>
       </c>
       <c r="W6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AB6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AC6" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE6"/>
-      <c r="AF6"/>
+        <v>403</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>378</v>
+      </c>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
@@ -4573,35 +4558,35 @@
       <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="47">
         <v>153</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M7" t="s">
-        <v>433</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O7">
         <v>10000</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R7" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U7" t="s">
@@ -4611,25 +4596,23 @@
         <v>98</v>
       </c>
       <c r="W7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA7" t="s">
         <v>81</v>
       </c>
       <c r="AB7"/>
       <c r="AC7" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF7" t="s">
         <v>64</v>
       </c>
-      <c r="AE7"/>
-      <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
@@ -4791,35 +4774,35 @@
       <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="47">
         <v>153</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="48">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M8" t="s">
-        <v>433</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O8">
         <v>10000</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="49" t="s">
         <v>92</v>
       </c>
       <c r="U8" t="s">
@@ -4829,25 +4812,23 @@
         <v>98</v>
       </c>
       <c r="W8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA8" t="s">
         <v>81</v>
       </c>
       <c r="AB8"/>
       <c r="AC8" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF8" t="s">
         <v>78</v>
       </c>
-      <c r="AE8"/>
-      <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
@@ -5009,35 +4990,35 @@
       <c r="I9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="47">
         <v>153</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M9" t="s">
-        <v>433</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O9">
         <v>10000</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="50" t="s">
+      <c r="S9" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U9" t="s">
@@ -5047,25 +5028,23 @@
         <v>98</v>
       </c>
       <c r="W9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AA9" t="s">
         <v>81</v>
       </c>
       <c r="AB9"/>
       <c r="AC9" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF9" t="s">
         <v>64</v>
       </c>
-      <c r="AE9"/>
-      <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
@@ -5227,35 +5206,35 @@
       <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <v>153</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="48">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M10" t="s">
-        <v>433</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O10">
         <v>10000</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R10" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="50" t="s">
+      <c r="S10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U10" t="s">
@@ -5265,30 +5244,28 @@
         <v>98</v>
       </c>
       <c r="W10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AA10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AB10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AC10" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF10"/>
-      <c r="AG10"/>
+        <v>403</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>380</v>
+      </c>
       <c r="AH10"/>
       <c r="AI10"/>
       <c r="AJ10"/>
@@ -5449,35 +5426,35 @@
       <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="47">
         <v>153</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="48">
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M11" t="s">
-        <v>433</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>408</v>
+        <v>431</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O11">
         <v>10000</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="S11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T11" s="50" t="s">
+      <c r="T11" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U11" t="s">
@@ -5487,28 +5464,26 @@
         <v>98</v>
       </c>
       <c r="W11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AA11" t="s">
         <v>83</v>
       </c>
       <c r="AB11"/>
       <c r="AC11" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF11"/>
-      <c r="AG11"/>
+        <v>403</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>382</v>
+      </c>
       <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11"/>
@@ -5669,35 +5644,35 @@
       <c r="I12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="47">
         <v>144</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O12">
         <v>8000</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R12" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="S12" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="49" t="s">
         <v>77</v>
       </c>
       <c r="U12" t="s">
@@ -5707,19 +5682,19 @@
         <v>98</v>
       </c>
       <c r="W12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA12" t="s">
         <v>82</v>
       </c>
       <c r="AB12"/>
       <c r="AC12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -5885,35 +5860,35 @@
       <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="47">
         <v>144</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="48">
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M13" t="s">
-        <v>434</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O13">
         <v>8000</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R13" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T13" s="50" t="s">
+      <c r="T13" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U13" t="s">
@@ -5923,19 +5898,19 @@
         <v>98</v>
       </c>
       <c r="W13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA13" t="s">
         <v>81</v>
       </c>
       <c r="AB13"/>
       <c r="AC13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -6101,35 +6076,35 @@
       <c r="I14" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="47">
         <v>144</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M14" t="s">
-        <v>434</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O14">
         <v>8000</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R14" t="s">
         <v>91</v>
       </c>
-      <c r="S14" s="50" t="s">
+      <c r="S14" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U14" t="s">
@@ -6139,19 +6114,19 @@
         <v>98</v>
       </c>
       <c r="W14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA14" t="s">
         <v>81</v>
       </c>
       <c r="AB14"/>
       <c r="AC14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -6317,35 +6292,35 @@
       <c r="I15" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="47">
         <v>144</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="48">
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M15" t="s">
-        <v>434</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>406</v>
       </c>
       <c r="O15">
         <v>8000</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="T15" s="50" t="s">
+      <c r="T15" s="49" t="s">
         <v>78</v>
       </c>
       <c r="U15" t="s">
@@ -6355,19 +6330,19 @@
         <v>98</v>
       </c>
       <c r="W15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA15" t="s">
         <v>83</v>
       </c>
       <c r="AB15"/>
       <c r="AC15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -6512,9 +6487,6 @@
       <c r="FN15"/>
       <c r="FO15"/>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U18" s="41"/>
-    </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6528,8 +6500,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6584,10 +6556,10 @@
         <v>42</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>44</v>
@@ -6608,13 +6580,13 @@
         <v>106</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>387</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>109</v>
@@ -6649,10 +6621,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -6664,25 +6636,25 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>13</v>
@@ -6691,7 +6663,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>31</v>
@@ -6708,7 +6680,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>41456</v>
@@ -6720,7 +6692,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -6732,23 +6704,23 @@
       <c r="N4" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44" t="s">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>41456</v>
@@ -6760,7 +6732,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -6772,23 +6744,23 @@
       <c r="N5" t="s">
         <v>110</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44" t="s">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C6">
         <v>41456</v>
@@ -6800,7 +6772,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -6812,21 +6784,21 @@
       <c r="N6" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44" t="s">
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C7">
         <v>41456</v>
@@ -6838,7 +6810,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -6850,21 +6822,21 @@
       <c r="N7" t="s">
         <v>111</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C8">
         <v>41456</v>
@@ -6876,7 +6848,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -6886,21 +6858,21 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C9">
         <v>41456</v>
@@ -6912,33 +6884,30 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G9"/>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C10">
         <v>41456</v>
@@ -6950,7 +6919,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -6960,21 +6929,21 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44" t="s">
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="C11">
         <v>41456</v>
@@ -6986,7 +6955,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -6996,21 +6965,21 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C12">
         <v>41456</v>
@@ -7022,7 +6991,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -7032,17 +7001,17 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="C13">
         <v>41456</v>
@@ -7054,7 +7023,7 @@
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -7064,17 +7033,17 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>41456</v>
@@ -7086,7 +7055,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -7096,25 +7065,12 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="P14" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q14" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>41456</v>
@@ -7126,7 +7082,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7136,25 +7092,12 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C16">
         <v>41456</v>
@@ -7166,7 +7109,7 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7176,25 +7119,12 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="P16" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q16" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C17">
         <v>41456</v>
@@ -7206,7 +7136,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -7216,17 +7146,17 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C18">
         <v>41456</v>
@@ -7238,27 +7168,29 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="C19">
         <v>41456</v>
@@ -7270,7 +7202,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -7280,17 +7212,17 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="C20">
         <v>41456</v>
@@ -7302,7 +7234,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -7312,17 +7244,17 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C21">
         <v>41456</v>
@@ -7334,7 +7266,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7344,17 +7276,17 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C22">
         <v>41456</v>
@@ -7366,7 +7298,7 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -7376,17 +7308,17 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>445</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>41456</v>
@@ -7398,7 +7330,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -7408,17 +7340,17 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C24">
         <v>41456</v>
@@ -7430,7 +7362,7 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -7440,17 +7372,25 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
+      <c r="O24" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="P24" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q24" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C25">
         <v>41456</v>
@@ -7462,7 +7402,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -7472,17 +7412,25 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
+      <c r="O25" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="P25" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C26">
         <v>41456</v>
@@ -7494,7 +7442,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -7504,17 +7452,25 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="O26" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="C27">
         <v>41456</v>
@@ -7526,7 +7482,7 @@
         <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -7536,17 +7492,17 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="C28">
         <v>41456</v>
@@ -7558,7 +7514,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -7568,17 +7524,17 @@
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C29">
         <v>41456</v>
@@ -7590,7 +7546,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -7600,17 +7556,17 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="C30">
         <v>41456</v>
@@ -7622,7 +7578,7 @@
         <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -7632,17 +7588,17 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C31">
         <v>41456</v>
@@ -7654,7 +7610,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -7664,17 +7620,17 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32">
         <v>41456</v>
@@ -7686,7 +7642,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -7696,17 +7652,17 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C33">
         <v>41456</v>
@@ -7718,7 +7674,7 @@
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -7728,17 +7684,17 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34">
         <v>41456</v>
@@ -7750,7 +7706,7 @@
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -7760,17 +7716,17 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C35">
         <v>41456</v>
@@ -7782,7 +7738,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -7792,17 +7748,17 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C36">
         <v>41456</v>
@@ -7814,7 +7770,7 @@
         <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -7824,17 +7780,17 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C37">
         <v>41456</v>
@@ -7846,7 +7802,7 @@
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -7856,17 +7812,17 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C38">
         <v>41456</v>
@@ -7878,7 +7834,7 @@
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -7888,17 +7844,17 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C39">
         <v>41456</v>
@@ -7910,7 +7866,7 @@
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -7920,17 +7876,17 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C40">
         <v>41456</v>
@@ -7942,7 +7898,7 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -7952,13 +7908,13 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -7974,7 +7930,7 @@
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -7984,17 +7940,17 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="C42">
         <v>41456</v>
@@ -8006,7 +7962,7 @@
         <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -8016,17 +7972,17 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C43">
         <v>41456</v>
@@ -8038,7 +7994,7 @@
         <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -8048,17 +8004,17 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>449</v>
+        <v>327</v>
       </c>
       <c r="C44">
         <v>41456</v>
@@ -8070,7 +8026,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -8080,17 +8036,17 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C45">
         <v>41456</v>
@@ -8102,7 +8058,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -8112,17 +8068,17 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C46">
         <v>41456</v>
@@ -8134,7 +8090,7 @@
         <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -8144,17 +8100,17 @@
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="C47">
         <v>41456</v>
@@ -8166,7 +8122,7 @@
         <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -8176,17 +8132,17 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="C48">
         <v>41456</v>
@@ -8198,7 +8154,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -8208,17 +8164,17 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="C49">
         <v>41456</v>
@@ -8230,7 +8186,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -8240,17 +8196,17 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="C50">
         <v>41456</v>
@@ -8262,7 +8218,7 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -8272,17 +8228,17 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C51">
         <v>41456</v>
@@ -8294,7 +8250,7 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -8304,13 +8260,13 @@
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -8326,7 +8282,7 @@
         <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -8336,13 +8292,13 @@
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -8358,7 +8314,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -8368,13 +8324,13 @@
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -8390,7 +8346,7 @@
         <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -8400,13 +8356,13 @@
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -8422,7 +8378,7 @@
         <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -8432,13 +8388,13 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -8454,7 +8410,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -8464,17 +8420,17 @@
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C57">
         <v>41456</v>
@@ -8486,7 +8442,7 @@
         <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -8496,17 +8452,17 @@
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C58">
         <v>41456</v>
@@ -8518,7 +8474,7 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -8528,17 +8484,17 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C59">
         <v>41456</v>
@@ -8550,7 +8506,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -8560,17 +8516,17 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C60">
         <v>41456</v>
@@ -8582,7 +8538,7 @@
         <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -8592,17 +8548,17 @@
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C61">
         <v>41456</v>
@@ -8614,7 +8570,7 @@
         <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -8624,17 +8580,17 @@
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C62">
         <v>41456</v>
@@ -8646,7 +8602,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -8656,17 +8612,17 @@
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C63">
         <v>41456</v>
@@ -8678,7 +8634,7 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -8688,17 +8644,17 @@
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C64">
         <v>41456</v>
@@ -8710,7 +8666,7 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -8720,17 +8676,17 @@
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C65">
         <v>41456</v>
@@ -8742,7 +8698,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -8752,13 +8708,13 @@
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -8774,7 +8730,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -8784,13 +8740,13 @@
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -8806,7 +8762,7 @@
         <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -8816,17 +8772,17 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C68">
         <v>41456</v>
@@ -8838,7 +8794,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -8848,17 +8804,17 @@
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C69">
         <v>41456</v>
@@ -8870,7 +8826,7 @@
         <v>100</v>
       </c>
       <c r="F69" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -8880,17 +8836,17 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C70">
         <v>41456</v>
@@ -8902,7 +8858,7 @@
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -8912,17 +8868,17 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C71">
         <v>41456</v>
@@ -8934,7 +8890,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -8944,17 +8900,17 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C72">
         <v>41456</v>
@@ -8966,7 +8922,7 @@
         <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -8976,17 +8932,17 @@
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C73">
         <v>41456</v>
@@ -8998,7 +8954,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -9008,17 +8964,17 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C74">
         <v>41456</v>
@@ -9030,7 +8986,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -9040,13 +8996,13 @@
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
-      <c r="U74" s="44"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="36"/>
